--- a/availability_file.xlsx
+++ b/availability_file.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaeeun/Desktop/Interview-Automatic-Scheduler/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7FB456D-D777-0D49-B55B-8024A62E8D1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E85B949-49B0-DF4C-81CD-D2D54224E484}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16160" xr2:uid="{6B0391A0-FDAD-B44D-811E-B57B705CEE90}"/>
+    <workbookView xWindow="4320" yWindow="460" windowWidth="24480" windowHeight="16160" xr2:uid="{6B0391A0-FDAD-B44D-811E-B57B705CEE90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,581 +31,215 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="194">
-  <si>
-    <t>이종인</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="197">
   <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시</t>
   </si>
   <si>
-    <t>김예진</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시</t>
   </si>
   <si>
-    <t>장영준</t>
-  </si>
-  <si>
-    <t>최승원</t>
-  </si>
-  <si>
     <t>21 (토) 5시 ~ 6시</t>
   </si>
   <si>
-    <t>권경민</t>
-  </si>
-  <si>
     <t>21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시</t>
   </si>
   <si>
-    <t>전민권</t>
-  </si>
-  <si>
     <t>21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시</t>
   </si>
   <si>
-    <t>김경혜</t>
-  </si>
-  <si>
     <t>23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>김민지</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>김지호</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시</t>
   </si>
   <si>
-    <t>한채훈</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>임진우</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>이윤주</t>
-  </si>
-  <si>
-    <t>김민주</t>
-  </si>
-  <si>
     <t>22 (일) 1시 ~ 2시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>김지수</t>
-  </si>
-  <si>
-    <t>문서영</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시</t>
   </si>
   <si>
-    <t>유병규</t>
-  </si>
-  <si>
     <t>22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>김우식</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시</t>
   </si>
   <si>
-    <t>서준원</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시</t>
   </si>
   <si>
-    <t>장현익</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시</t>
   </si>
   <si>
-    <t>양세찬</t>
-  </si>
-  <si>
-    <t>백인구</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시</t>
   </si>
   <si>
-    <t>조재경</t>
-  </si>
-  <si>
     <t>23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>김승근</t>
-  </si>
-  <si>
     <t>22 (일) 2시 ~ 3시</t>
   </si>
   <si>
-    <t>김규원</t>
-  </si>
-  <si>
-    <t>김선준</t>
-  </si>
-  <si>
     <t>21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시</t>
   </si>
   <si>
-    <t>강세린</t>
-  </si>
-  <si>
     <t>21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>최수완</t>
-  </si>
-  <si>
     <t>22 (일) 1시 ~ 2시</t>
   </si>
   <si>
-    <t>박세환</t>
-  </si>
-  <si>
     <t>23 (월) 7시 ~ 8시</t>
   </si>
   <si>
-    <t>정석현</t>
-  </si>
-  <si>
     <t>22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>이한호</t>
-  </si>
-  <si>
-    <t>김종휘</t>
-  </si>
-  <si>
     <t>23 (월) 6시 ~ 7시</t>
   </si>
   <si>
-    <t>구경모</t>
-  </si>
-  <si>
-    <t>김의서 </t>
-  </si>
-  <si>
-    <t>홍주한</t>
-  </si>
-  <si>
     <t>21 (토) 5시 ~ 6시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>윤동선</t>
-  </si>
-  <si>
     <t>22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시</t>
   </si>
   <si>
-    <t>이용주</t>
-  </si>
-  <si>
-    <t>오현경</t>
-  </si>
-  <si>
     <t>21 (토) 3시 ~ 4시</t>
   </si>
   <si>
-    <t>이두현</t>
-  </si>
-  <si>
-    <t>우용훈</t>
-  </si>
-  <si>
-    <t>최장혁</t>
-  </si>
-  <si>
     <t>21 (토) 5시 ~ 6시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시</t>
   </si>
   <si>
-    <t>정재환</t>
-  </si>
-  <si>
-    <t>박재승</t>
-  </si>
-  <si>
-    <t>이주호</t>
-  </si>
-  <si>
-    <t>이경현</t>
-  </si>
-  <si>
     <t>21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>김영근</t>
-  </si>
-  <si>
     <t>22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 23 (월) 6시 ~ 7시</t>
   </si>
   <si>
-    <t>박은옥</t>
-  </si>
-  <si>
     <t>21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>장영환</t>
-  </si>
-  <si>
     <t>22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 6시 ~ 7시</t>
   </si>
   <si>
-    <t>김민규</t>
-  </si>
-  <si>
     <t>21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>박은천</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>최기윤</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>정은주</t>
-  </si>
-  <si>
-    <t>노재윤</t>
-  </si>
-  <si>
     <t>21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 6시 ~ 7시</t>
   </si>
   <si>
-    <t>김인호</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시</t>
   </si>
   <si>
-    <t>류정현</t>
-  </si>
-  <si>
-    <t>이재원</t>
-  </si>
-  <si>
-    <t>김동훈</t>
-  </si>
-  <si>
     <t>21 (토) 2시 ~ 3시</t>
   </si>
   <si>
-    <t>이유진</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시</t>
   </si>
   <si>
-    <t>정소영</t>
-  </si>
-  <si>
     <t>21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시</t>
   </si>
   <si>
-    <t>최형석</t>
-  </si>
-  <si>
-    <t>권채린</t>
-  </si>
-  <si>
     <t>21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 6시 ~ 7시</t>
   </si>
   <si>
-    <t>배유빈</t>
-  </si>
-  <si>
-    <t>표영흔</t>
-  </si>
-  <si>
-    <t>김민서</t>
-  </si>
-  <si>
-    <t>박창연</t>
-  </si>
-  <si>
     <t>22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>문지원</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>조수빈</t>
-  </si>
-  <si>
-    <t>안이찬</t>
-  </si>
-  <si>
-    <t>윤재웅</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>강동흔</t>
-  </si>
-  <si>
-    <t>손영준</t>
-  </si>
-  <si>
     <t>21 (토) 5시 ~ 6시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시</t>
   </si>
   <si>
-    <t>임성준</t>
-  </si>
-  <si>
-    <t>임규은</t>
-  </si>
-  <si>
     <t>23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시</t>
   </si>
   <si>
-    <t>노길호</t>
-  </si>
-  <si>
-    <t>안수홍</t>
-  </si>
-  <si>
-    <t>정다은</t>
-  </si>
-  <si>
     <t>23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>양진혁</t>
-  </si>
-  <si>
-    <t>박정윤</t>
-  </si>
-  <si>
     <t>21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 6시 ~ 7시</t>
   </si>
   <si>
     <t>21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 7시 ~ 8시</t>
   </si>
   <si>
-    <t>김다희</t>
-  </si>
-  <si>
-    <t>김희망</t>
-  </si>
-  <si>
     <t>21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시</t>
   </si>
   <si>
-    <t>박지원</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시</t>
   </si>
   <si>
-    <t>정현우</t>
-  </si>
-  <si>
-    <t>유다형</t>
-  </si>
-  <si>
     <t>21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시</t>
   </si>
   <si>
-    <t>이성재</t>
-  </si>
-  <si>
     <t>21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>강도량입니다. </t>
-  </si>
-  <si>
-    <t>김지우</t>
-  </si>
-  <si>
-    <t>김정우</t>
-  </si>
-  <si>
-    <t>임종원</t>
-  </si>
-  <si>
     <t>21 (토) 5시 ~ 6시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>배정은</t>
-  </si>
-  <si>
-    <t>김민재</t>
-  </si>
-  <si>
     <t>21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시</t>
   </si>
   <si>
-    <t>김재이</t>
-  </si>
-  <si>
     <t>21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>조인우</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 1시 ~ 2시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시</t>
   </si>
   <si>
-    <t>임수현</t>
-  </si>
-  <si>
-    <t>한수진</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시</t>
   </si>
   <si>
-    <t>윤아람</t>
-  </si>
-  <si>
-    <t>김무연</t>
-  </si>
-  <si>
-    <t>김영서</t>
-  </si>
-  <si>
-    <t>명하진</t>
-  </si>
-  <si>
-    <t>이혜민</t>
-  </si>
-  <si>
     <t>22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>윤예진</t>
-  </si>
-  <si>
     <t>21 (토) 1시 ~ 2시, 21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시</t>
   </si>
   <si>
-    <t>지가영</t>
-  </si>
-  <si>
-    <t>박지승</t>
-  </si>
-  <si>
-    <t>김지원</t>
-  </si>
-  <si>
     <t>21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시</t>
   </si>
   <si>
-    <t>주하담</t>
-  </si>
-  <si>
     <t>21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>길영환</t>
-  </si>
-  <si>
-    <t>박예은</t>
-  </si>
-  <si>
-    <t>황지현</t>
-  </si>
-  <si>
     <t>21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시</t>
   </si>
   <si>
-    <t>김가영</t>
-  </si>
-  <si>
     <t>21 (토) 2시 ~ 3시, 21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시</t>
   </si>
   <si>
-    <t>정수경</t>
-  </si>
-  <si>
-    <t>최수현</t>
-  </si>
-  <si>
     <t>21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시</t>
   </si>
   <si>
-    <t>신승연</t>
-  </si>
-  <si>
-    <t>장성균</t>
-  </si>
-  <si>
-    <t>이세원</t>
-  </si>
-  <si>
-    <t>김다빈</t>
-  </si>
-  <si>
     <t>21 (토) 5시 ~ 6시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시</t>
   </si>
   <si>
-    <t>전원석</t>
-  </si>
-  <si>
     <t>21 (토) 3시 ~ 4시, 21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>정민영</t>
-  </si>
-  <si>
     <t>21 (토) 4시 ~ 5시, 21 (토) 5시 ~ 6시, 22 (일) 1시 ~ 2시, 22 (일) 2시 ~ 3시, 22 (일) 3시 ~ 4시, 22 (일) 4시 ~ 5시, 22 (일) 5시 ~ 6시, 23 (월) 6시 ~ 7시, 23 (월) 7시 ~ 8시, 23 (월) 8시 ~ 9시</t>
   </si>
   <si>
-    <t>최연우</t>
-  </si>
-  <si>
-    <t>이창민</t>
-  </si>
-  <si>
-    <t>최성준</t>
-  </si>
-  <si>
-    <t>최종현</t>
-  </si>
-  <si>
-    <t>김성경</t>
-  </si>
-  <si>
-    <t>엄세희</t>
-  </si>
-  <si>
-    <t>임상원</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -613,13 +247,388 @@
   </si>
   <si>
     <t>availability</t>
+  </si>
+  <si>
+    <t>종인</t>
+  </si>
+  <si>
+    <t>승원</t>
+  </si>
+  <si>
+    <t>경민</t>
+  </si>
+  <si>
+    <t>민권</t>
+  </si>
+  <si>
+    <t>경혜</t>
+  </si>
+  <si>
+    <t>지호</t>
+  </si>
+  <si>
+    <t>채훈</t>
+  </si>
+  <si>
+    <t>진우</t>
+  </si>
+  <si>
+    <t>윤주</t>
+  </si>
+  <si>
+    <t>민주</t>
+  </si>
+  <si>
+    <t>병규</t>
+  </si>
+  <si>
+    <t>우식</t>
+  </si>
+  <si>
+    <t>준원</t>
+  </si>
+  <si>
+    <t>현익</t>
+  </si>
+  <si>
+    <t>세찬</t>
+  </si>
+  <si>
+    <t>인구</t>
+  </si>
+  <si>
+    <t>재경</t>
+  </si>
+  <si>
+    <t>승근</t>
+  </si>
+  <si>
+    <t>규원</t>
+  </si>
+  <si>
+    <t>선준</t>
+  </si>
+  <si>
+    <t>세린</t>
+  </si>
+  <si>
+    <t>수완</t>
+  </si>
+  <si>
+    <t>세환</t>
+  </si>
+  <si>
+    <t>석현</t>
+  </si>
+  <si>
+    <t>한호</t>
+  </si>
+  <si>
+    <t>종휘</t>
+  </si>
+  <si>
+    <t>경모</t>
+  </si>
+  <si>
+    <t>주한</t>
+  </si>
+  <si>
+    <t>동선</t>
+  </si>
+  <si>
+    <t>용주</t>
+  </si>
+  <si>
+    <t>현경</t>
+  </si>
+  <si>
+    <t>두현</t>
+  </si>
+  <si>
+    <t>용훈</t>
+  </si>
+  <si>
+    <t>장혁</t>
+  </si>
+  <si>
+    <t>재환</t>
+  </si>
+  <si>
+    <t>재승</t>
+  </si>
+  <si>
+    <t>주호</t>
+  </si>
+  <si>
+    <t>경현</t>
+  </si>
+  <si>
+    <t>영근</t>
+  </si>
+  <si>
+    <t>은옥</t>
+  </si>
+  <si>
+    <t>민규</t>
+  </si>
+  <si>
+    <t>은천</t>
+  </si>
+  <si>
+    <t>기윤</t>
+  </si>
+  <si>
+    <t>은주</t>
+  </si>
+  <si>
+    <t>재윤</t>
+  </si>
+  <si>
+    <t>인호</t>
+  </si>
+  <si>
+    <t>정현</t>
+  </si>
+  <si>
+    <t>재원</t>
+  </si>
+  <si>
+    <t>동훈</t>
+  </si>
+  <si>
+    <t>유진</t>
+  </si>
+  <si>
+    <t>소영</t>
+  </si>
+  <si>
+    <t>형석</t>
+  </si>
+  <si>
+    <t>채린</t>
+  </si>
+  <si>
+    <t>유빈</t>
+  </si>
+  <si>
+    <t>영흔</t>
+  </si>
+  <si>
+    <t>민서</t>
+  </si>
+  <si>
+    <t>창연</t>
+  </si>
+  <si>
+    <t>수빈</t>
+  </si>
+  <si>
+    <t>이찬</t>
+  </si>
+  <si>
+    <t>재웅</t>
+  </si>
+  <si>
+    <t>동흔</t>
+  </si>
+  <si>
+    <t>규은</t>
+  </si>
+  <si>
+    <t>길호</t>
+  </si>
+  <si>
+    <t>수홍</t>
+  </si>
+  <si>
+    <t>다은</t>
+  </si>
+  <si>
+    <t>진혁</t>
+  </si>
+  <si>
+    <t>정윤</t>
+  </si>
+  <si>
+    <t>다희</t>
+  </si>
+  <si>
+    <t>희망</t>
+  </si>
+  <si>
+    <t>현우</t>
+  </si>
+  <si>
+    <t>다형</t>
+  </si>
+  <si>
+    <t>성재</t>
+  </si>
+  <si>
+    <t>지우</t>
+  </si>
+  <si>
+    <t>정우</t>
+  </si>
+  <si>
+    <t>종원</t>
+  </si>
+  <si>
+    <t>정은</t>
+  </si>
+  <si>
+    <t>민재</t>
+  </si>
+  <si>
+    <t>재이</t>
+  </si>
+  <si>
+    <t>인우</t>
+  </si>
+  <si>
+    <t>수진</t>
+  </si>
+  <si>
+    <t>아람</t>
+  </si>
+  <si>
+    <t>무연</t>
+  </si>
+  <si>
+    <t>영서</t>
+  </si>
+  <si>
+    <t>하진</t>
+  </si>
+  <si>
+    <t>혜민</t>
+  </si>
+  <si>
+    <t>지승</t>
+  </si>
+  <si>
+    <t>하담</t>
+  </si>
+  <si>
+    <t>예은</t>
+  </si>
+  <si>
+    <t>지현</t>
+  </si>
+  <si>
+    <t>수경</t>
+  </si>
+  <si>
+    <t>승연</t>
+  </si>
+  <si>
+    <t>성균</t>
+  </si>
+  <si>
+    <t>세원</t>
+  </si>
+  <si>
+    <t>다빈</t>
+  </si>
+  <si>
+    <t>원석</t>
+  </si>
+  <si>
+    <t>민영</t>
+  </si>
+  <si>
+    <t>연우</t>
+  </si>
+  <si>
+    <t>창민</t>
+  </si>
+  <si>
+    <t>종현</t>
+  </si>
+  <si>
+    <t>성경</t>
+  </si>
+  <si>
+    <t>세희</t>
+  </si>
+  <si>
+    <t>상원</t>
+  </si>
+  <si>
+    <t>재은</t>
+  </si>
+  <si>
+    <t>지원1</t>
+  </si>
+  <si>
+    <t>지원2</t>
+  </si>
+  <si>
+    <t>지수1</t>
+  </si>
+  <si>
+    <t>지수2</t>
+  </si>
+  <si>
+    <t>예진1</t>
+  </si>
+  <si>
+    <t>예진2</t>
+  </si>
+  <si>
+    <t>영준1</t>
+  </si>
+  <si>
+    <t>영준2</t>
+  </si>
+  <si>
+    <t>민지1</t>
+  </si>
+  <si>
+    <t>민지2</t>
+  </si>
+  <si>
+    <t>영환1</t>
+  </si>
+  <si>
+    <t>영환2</t>
+  </si>
+  <si>
+    <t>가영1</t>
+  </si>
+  <si>
+    <t>가영2</t>
+  </si>
+  <si>
+    <t>수현1</t>
+  </si>
+  <si>
+    <t>수현2</t>
+  </si>
+  <si>
+    <t>지원3</t>
+  </si>
+  <si>
+    <t>지원4</t>
+  </si>
+  <si>
+    <t>성준1</t>
+  </si>
+  <si>
+    <t>성준2</t>
+  </si>
+  <si>
+    <t>서영1</t>
+  </si>
+  <si>
+    <t>서영2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -641,9 +650,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -666,18 +680,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -989,24 +1016,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A376105-E0CA-3845-ACFE-C1C73977ABB1}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="10.83203125" style="7"/>
     <col min="3" max="3" width="162" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>69</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1017,1604 +1045,1754 @@
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>2</v>
+      <c r="B3" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
+      <c r="B4" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
+      <c r="B5" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>7</v>
+      <c r="B6" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
+      <c r="B7" s="6" t="s">
+        <v>75</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>11</v>
+      <c r="B8" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
+      <c r="B9" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>14</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>15</v>
+      <c r="B10" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
+      <c r="B11" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>19</v>
+      <c r="B12" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>21</v>
+      <c r="B13" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>22</v>
+      <c r="B14" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>24</v>
+      <c r="B15" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="B26" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <f>ROW()-1</f>
-        <v>16</v>
-      </c>
-      <c r="B17" s="5" t="s">
+      <c r="B27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="B28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4">
-        <f>ROW()-1</f>
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
+      <c r="B29" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="B30" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <f>ROW()-1</f>
-        <v>18</v>
-      </c>
-      <c r="B19" s="5" t="s">
+      <c r="B31" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="B32" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <f>ROW()-1</f>
+      <c r="B33" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <f t="shared" ref="A34:A65" si="1">ROW()-1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4">
+        <f t="shared" ref="A66:A97" si="2">ROW()-1</f>
+        <v>65</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4">
+        <f t="shared" ref="A98:A126" si="3">ROW()-1</f>
+        <v>97</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="1"/>
+    </row>
+    <row r="103" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="104" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D104" s="1"/>
+    </row>
+    <row r="105" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D105" s="1"/>
+    </row>
+    <row r="106" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D106" s="1"/>
+    </row>
+    <row r="107" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D107" s="1"/>
+    </row>
+    <row r="108" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" s="1"/>
+    </row>
+    <row r="110" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D110" s="1"/>
+    </row>
+    <row r="111" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1"/>
+    </row>
+    <row r="112" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D112" s="1"/>
+    </row>
+    <row r="113" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="1"/>
+    </row>
+    <row r="114" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1"/>
+    </row>
+    <row r="115" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D115" s="1"/>
+    </row>
+    <row r="116" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D116" s="1"/>
+    </row>
+    <row r="117" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D117" s="1"/>
+    </row>
+    <row r="118" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D118" s="1"/>
+    </row>
+    <row r="119" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" s="1"/>
+    </row>
+    <row r="120" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D120" s="1"/>
+    </row>
+    <row r="121" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" s="1"/>
+    </row>
+    <row r="122" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" s="1"/>
+    </row>
+    <row r="123" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" s="1"/>
+    </row>
+    <row r="124" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D124" s="1"/>
+    </row>
+    <row r="125" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="1"/>
+    </row>
+    <row r="126" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="4">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <f>ROW()-1</f>
-        <v>20</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <f>ROW()-1</f>
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <f>ROW()-1</f>
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <f>ROW()-1</f>
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <f>ROW()-1</f>
-        <v>24</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <f>ROW()-1</f>
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <f>ROW()-1</f>
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <f>ROW()-1</f>
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <f>ROW()-1</f>
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
-        <f>ROW()-1</f>
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <f>ROW()-1</f>
-        <v>30</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <f>ROW()-1</f>
-        <v>31</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <f>ROW()-1</f>
-        <v>32</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <f>ROW()-1</f>
-        <v>33</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <f>ROW()-1</f>
-        <v>34</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <f>ROW()-1</f>
-        <v>35</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <f>ROW()-1</f>
-        <v>36</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <f>ROW()-1</f>
-        <v>37</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <f>ROW()-1</f>
-        <v>38</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <f>ROW()-1</f>
-        <v>39</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <f>ROW()-1</f>
-        <v>40</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
-        <f>ROW()-1</f>
-        <v>41</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <f>ROW()-1</f>
-        <v>42</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <f>ROW()-1</f>
-        <v>43</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <f>ROW()-1</f>
-        <v>44</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <f>ROW()-1</f>
-        <v>45</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <f>ROW()-1</f>
-        <v>46</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <f>ROW()-1</f>
-        <v>47</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <f>ROW()-1</f>
-        <v>48</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <f>ROW()-1</f>
-        <v>49</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <f>ROW()-1</f>
-        <v>50</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <f>ROW()-1</f>
-        <v>51</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <f>ROW()-1</f>
-        <v>52</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="4">
-        <f>ROW()-1</f>
-        <v>53</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <f>ROW()-1</f>
-        <v>54</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <f>ROW()-1</f>
-        <v>55</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <f>ROW()-1</f>
-        <v>56</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <f>ROW()-1</f>
-        <v>57</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <f>ROW()-1</f>
-        <v>58</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <f>ROW()-1</f>
-        <v>59</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <f>ROW()-1</f>
-        <v>60</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <f>ROW()-1</f>
-        <v>61</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <f>ROW()-1</f>
-        <v>62</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <f>ROW()-1</f>
-        <v>63</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <f>ROW()-1</f>
-        <v>64</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="4">
-        <f>ROW()-1</f>
-        <v>65</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <f>ROW()-1</f>
-        <v>66</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <f>ROW()-1</f>
-        <v>67</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <f>ROW()-1</f>
-        <v>68</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <f>ROW()-1</f>
-        <v>69</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <f>ROW()-1</f>
-        <v>70</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <f>ROW()-1</f>
-        <v>71</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <f>ROW()-1</f>
-        <v>72</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <f>ROW()-1</f>
-        <v>73</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <f>ROW()-1</f>
-        <v>74</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <f>ROW()-1</f>
-        <v>75</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="4">
-        <f>ROW()-1</f>
-        <v>76</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="4">
-        <f>ROW()-1</f>
-        <v>77</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="4">
-        <f>ROW()-1</f>
-        <v>78</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="4">
-        <f>ROW()-1</f>
-        <v>79</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="4">
-        <f>ROW()-1</f>
-        <v>80</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="4">
-        <f>ROW()-1</f>
-        <v>81</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="4">
-        <f>ROW()-1</f>
-        <v>82</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="4">
-        <f>ROW()-1</f>
-        <v>83</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="4">
-        <f>ROW()-1</f>
-        <v>84</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="4">
-        <f>ROW()-1</f>
-        <v>85</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="4">
-        <f>ROW()-1</f>
-        <v>86</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="4">
-        <f>ROW()-1</f>
-        <v>87</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="4">
-        <f>ROW()-1</f>
-        <v>88</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C89" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="4">
-        <f>ROW()-1</f>
-        <v>89</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="4">
-        <f>ROW()-1</f>
-        <v>90</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="4">
-        <f>ROW()-1</f>
-        <v>91</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="4">
-        <f>ROW()-1</f>
-        <v>92</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="4">
-        <f>ROW()-1</f>
-        <v>93</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C94" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
-        <f>ROW()-1</f>
-        <v>94</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="4">
-        <f>ROW()-1</f>
-        <v>95</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="4">
-        <f>ROW()-1</f>
-        <v>96</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C97" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="4">
-        <f>ROW()-1</f>
-        <v>97</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="4">
-        <f>ROW()-1</f>
-        <v>98</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="4">
-        <f>ROW()-1</f>
-        <v>99</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="4">
-        <f>ROW()-1</f>
-        <v>100</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C101" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="4">
-        <f>ROW()-1</f>
-        <v>101</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="4">
-        <f>ROW()-1</f>
-        <v>102</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="4">
-        <f>ROW()-1</f>
-        <v>103</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
-        <f>ROW()-1</f>
-        <v>104</v>
-      </c>
-      <c r="B105" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
-        <f>ROW()-1</f>
-        <v>105</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="4">
-        <f>ROW()-1</f>
-        <v>106</v>
-      </c>
-      <c r="B107" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
-        <f>ROW()-1</f>
-        <v>107</v>
-      </c>
-      <c r="B108" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="4">
-        <f>ROW()-1</f>
-        <v>108</v>
-      </c>
-      <c r="B109" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="4">
-        <f>ROW()-1</f>
-        <v>109</v>
-      </c>
-      <c r="B110" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
-        <f>ROW()-1</f>
-        <v>110</v>
-      </c>
-      <c r="B111" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C111" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
-        <f>ROW()-1</f>
-        <v>111</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="4">
-        <f>ROW()-1</f>
-        <v>112</v>
-      </c>
-      <c r="B113" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="4">
-        <f>ROW()-1</f>
-        <v>113</v>
-      </c>
-      <c r="B114" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="4">
-        <f>ROW()-1</f>
-        <v>114</v>
-      </c>
-      <c r="B115" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="4">
-        <f>ROW()-1</f>
-        <v>115</v>
-      </c>
-      <c r="B116" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="4">
-        <f>ROW()-1</f>
-        <v>116</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
-        <f>ROW()-1</f>
-        <v>117</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="4">
-        <f>ROW()-1</f>
-        <v>118</v>
-      </c>
-      <c r="B119" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="4">
-        <f>ROW()-1</f>
-        <v>119</v>
-      </c>
-      <c r="B120" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="4">
-        <f>ROW()-1</f>
-        <v>120</v>
-      </c>
-      <c r="B121" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="4">
-        <f>ROW()-1</f>
-        <v>121</v>
-      </c>
-      <c r="B122" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="4">
-        <f>ROW()-1</f>
-        <v>122</v>
-      </c>
-      <c r="B123" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="4">
-        <f>ROW()-1</f>
-        <v>123</v>
-      </c>
-      <c r="B124" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="4">
-        <f>ROW()-1</f>
-        <v>124</v>
-      </c>
-      <c r="B125" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="4">
-        <f>ROW()-1</f>
-        <v>125</v>
-      </c>
-      <c r="B126" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D126" s="1"/>
+    </row>
+    <row r="127" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="4"/>
-    </row>
-    <row r="128" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D127" s="1"/>
+    </row>
+    <row r="128" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="4"/>
-    </row>
-    <row r="129" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D128" s="1"/>
+    </row>
+    <row r="129" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="4"/>
-    </row>
-    <row r="130" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D129" s="1"/>
+    </row>
+    <row r="130" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D130" s="1"/>
+    </row>
+    <row r="131" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D131" s="1"/>
+    </row>
+    <row r="132" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D132" s="1"/>
+    </row>
+    <row r="133" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D133" s="1"/>
+    </row>
+    <row r="134" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D134" s="1"/>
+    </row>
+    <row r="135" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D135" s="1"/>
+    </row>
+    <row r="136" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D136" s="1"/>
+    </row>
+    <row r="137" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D137" s="1"/>
+    </row>
+    <row r="138" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D138" s="1"/>
+    </row>
+    <row r="139" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D139" s="1"/>
+    </row>
+    <row r="140" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D142" s="1"/>
+    </row>
+    <row r="143" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D143" s="1"/>
+    </row>
+    <row r="144" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D144" s="1"/>
+    </row>
+    <row r="145" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D145" s="1"/>
+    </row>
+    <row r="146" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D146" s="1"/>
+    </row>
+    <row r="147" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D147" s="1"/>
+    </row>
+    <row r="148" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D148" s="1"/>
+    </row>
+    <row r="149" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D149" s="1"/>
+    </row>
+    <row r="150" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D150" s="1"/>
+    </row>
+    <row r="151" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D151" s="1"/>
+    </row>
+    <row r="152" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1"/>
     </row>
-    <row r="153" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
     </row>
-    <row r="154" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1"/>
     </row>
-    <row r="155" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1"/>
     </row>
-    <row r="156" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1"/>
     </row>
-    <row r="157" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1"/>
     </row>
-    <row r="158" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1"/>
     </row>
-    <row r="159" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
     </row>
-    <row r="160" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1"/>
     </row>
     <row r="161" spans="1:1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6405,6 +6583,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>